--- a/data/human/adult/validation/Scenarios/RespiratoryValidation.automated.xlsx
+++ b/data/human/adult/validation/Scenarios/RespiratoryValidation.automated.xlsx
@@ -87,15 +87,15 @@
     <t xml:space="preserve">Trigger airway obstruction;  severity = 0.3. Represents the partial obstruction (severity = 0.3) of airway due to  foreign body (obstructing material). Not severe enough to trigger CV responses.</t>
   </si>
   <si>
-    <t xml:space="preserve">Target</t>
+    <t xml:space="preserve">Comparison Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparison Segment/Value</t>
   </si>
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Comparison Segment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Physiology</t>
   </si>
   <si>
@@ -105,7 +105,7 @@
     <t xml:space="preserve">1/min</t>
   </si>
   <si>
-    <t xml:space="preserve">greaterThan</t>
+    <t xml:space="preserve">greaterThanSegment</t>
   </si>
   <si>
     <t xml:space="preserve">Morgan2006Clinical</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">unitless</t>
   </si>
   <si>
-    <t xml:space="preserve">lessThan</t>
+    <t xml:space="preserve">lessThanSegment</t>
   </si>
   <si>
     <t xml:space="preserve">{ "PatientAction": {
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Airway obstruction is turned off.</t>
   </si>
   <si>
-    <t xml:space="preserve">equalTo</t>
+    <t xml:space="preserve">equalToSegment</t>
   </si>
   <si>
     <t xml:space="preserve">{ "PatientAction": {
@@ -189,7 +189,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -217,6 +217,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -231,6 +238,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -247,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -421,6 +440,13 @@
       <right style="medium"/>
       <top/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -484,7 +510,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,15 +519,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,39 +539,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -549,11 +579,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,15 +599,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,103 +615,119 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -765,194 +811,194 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="21" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="n">
+      <c r="A9" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="29" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="30" t="s">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="32" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
@@ -965,15 +1011,15 @@
       <c r="D12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
         <v>23</v>
       </c>
@@ -986,17 +1032,17 @@
       <c r="D13" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
         <v>23</v>
       </c>
@@ -1009,17 +1055,17 @@
       <c r="D14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
         <v>23</v>
       </c>
@@ -1032,87 +1078,87 @@
       <c r="D15" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="n">
+      <c r="A17" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="E19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="43"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
         <v>23</v>
       </c>
@@ -1125,13 +1171,13 @@
       <c r="D20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
         <v>23</v>
       </c>
@@ -1144,13 +1190,13 @@
       <c r="D21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
         <v>23</v>
       </c>
@@ -1163,13 +1209,13 @@
       <c r="D22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
         <v>23</v>
       </c>
@@ -1182,87 +1228,87 @@
       <c r="D23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="38"/>
+      <c r="E23" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="55.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40" t="n">
+      <c r="A25" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="30" t="s">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="32" t="n">
-        <v>1</v>
-      </c>
       <c r="G27" s="33"/>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="34" t="s">
         <v>23</v>
       </c>
@@ -1275,15 +1321,15 @@
       <c r="D28" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="34" t="s">
         <v>23</v>
       </c>
@@ -1296,17 +1342,17 @@
       <c r="D29" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="34" t="s">
         <v>23</v>
       </c>
@@ -1319,17 +1365,17 @@
       <c r="D30" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
         <v>23</v>
       </c>
@@ -1342,87 +1388,87 @@
       <c r="D31" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="38"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40" t="n">
+      <c r="A33" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="30" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="E35" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="43"/>
       <c r="G35" s="33"/>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
         <v>23</v>
       </c>
@@ -1432,16 +1478,16 @@
       <c r="C36" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="45"/>
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
         <v>23</v>
       </c>
@@ -1451,16 +1497,16 @@
       <c r="C37" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="45"/>
+      <c r="G37" s="37"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
         <v>23</v>
       </c>
@@ -1470,16 +1516,16 @@
       <c r="C38" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="45"/>
+      <c r="G38" s="37"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
         <v>23</v>
       </c>
@@ -1489,90 +1535,90 @@
       <c r="C39" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="38"/>
+      <c r="E39" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="45"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="68.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40" t="n">
+      <c r="A41" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42" t="s">
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="30" t="s">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="32" t="n">
-        <v>3</v>
-      </c>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
         <v>23</v>
       </c>
@@ -1585,15 +1631,15 @@
       <c r="D44" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="38"/>
-    </row>
-    <row r="45" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="37"/>
+    </row>
+    <row r="45" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
         <v>23</v>
       </c>
@@ -1606,17 +1652,17 @@
       <c r="D45" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="34" t="s">
         <v>23</v>
       </c>
@@ -1629,17 +1675,17 @@
       <c r="D46" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="s">
         <v>23</v>
       </c>
@@ -1652,87 +1698,87 @@
       <c r="D47" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" s="38"/>
+      <c r="G47" s="37"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22" t="s">
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40" t="n">
+      <c r="A49" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42" t="s">
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="30" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="E51" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="43"/>
       <c r="G51" s="33"/>
     </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="34" t="s">
         <v>23</v>
       </c>
@@ -1742,16 +1788,16 @@
       <c r="C52" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="43"/>
-      <c r="F52" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="38"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="45"/>
+      <c r="G52" s="37"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="s">
         <v>23</v>
       </c>
@@ -1761,16 +1807,16 @@
       <c r="C53" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="38"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="45"/>
+      <c r="G53" s="37"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="34" t="s">
         <v>23</v>
       </c>
@@ -1780,33 +1826,33 @@
       <c r="C54" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="38"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="45" t="s">
+      <c r="E54" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="G54" s="37"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="47"/>
-      <c r="F55" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="49"/>
+      <c r="E55" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="53"/>
+      <c r="G55" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="20">
